--- a/Tatulya/create cards/Data_to_create_27.03.2024.xlsx
+++ b/Tatulya/create cards/Data_to_create_27.03.2024.xlsx
@@ -1273,7 +1273,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="85">
   <si>
     <t xml:space="preserve">Артикул</t>
   </si>
@@ -1494,16 +1494,13 @@
     <t xml:space="preserve">barbie_ar45_tat_vert</t>
   </si>
   <si>
-    <t xml:space="preserve">https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/A5/</t>
+    <t xml:space="preserve">https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/tree/main/Tatulya/images/A5/</t>
   </si>
   <si>
     <t xml:space="preserve">Декор для одежды</t>
   </si>
   <si>
-    <t xml:space="preserve">Punky Monkey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OZN1463857418</t>
+    <t xml:space="preserve">Amazing Pics</t>
   </si>
   <si>
     <t xml:space="preserve">Полимерный материал</t>
@@ -1518,7 +1515,7 @@
     <t xml:space="preserve">Нет</t>
   </si>
   <si>
-    <t xml:space="preserve">DTF A5 set2</t>
+    <t xml:space="preserve">DTF A5 set1</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка</t>
@@ -1530,7 +1527,7 @@
     <t xml:space="preserve">термонаклейка А4</t>
   </si>
   <si>
-    <t xml:space="preserve"> - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Punkey Monkey!
+    <t xml:space="preserve"> - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Amazing Pics!
 </t>
   </si>
 </sst>
@@ -1704,7 +1701,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1738,7 +1735,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -1779,6 +1776,10 @@
     </xf>
     <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -1864,8 +1865,8 @@
   </sheetPr>
   <dimension ref="A1:BS120"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H6" activeCellId="0" sqref="H6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="BE2" activeCellId="0" sqref="BE2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1877,7 +1878,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="76.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="20.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="66.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="74.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="19.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="25.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="25.84"/>
@@ -2131,7 +2132,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="36.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
         <v>71</v>
       </c>
@@ -2161,18 +2162,16 @@
         <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(A2, "Термонаклейка", "")</f>
         <v>Термонаклейка для одежды: Барби фон розовый круг</v>
       </c>
-      <c r="P2" s="7" t="s">
-        <v>76</v>
-      </c>
+      <c r="P2" s="7"/>
       <c r="Q2" s="0" t="n">
         <v>285</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="S2" s="8" t="str">
         <f aca="false">A2&amp;Описание!B7</f>
-        <v>Термонаклейка Барби фон розовый круг - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Punkey Monkey!
+        <v>Термонаклейка Барби фон розовый круг - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Amazing Pics!
 </v>
       </c>
       <c r="T2" s="0" t="n">
@@ -2188,11 +2187,11 @@
         <v>10</v>
       </c>
       <c r="X2" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Y2" s="9" t="str">
         <f aca="false">CONCATENATE(CONCATENATE(H2,C2,"_1.jpg;"),CONCATENATE(H2,C2,"_2.jpg;"),CONCATENATE(H2,C2,"_3.jpg;"),CONCATENATE(H2,C2,"_4.jpg;"),CONCATENATE(H2,C2,"_5.jpg;"),CONCATENATE(H2,"instruction_A5.jpg;"),CONCATENATE(H2,"Video_DTF.mp4;"))</f>
-        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/A5/barbie_ar45_tat_vert_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/A5/barbie_ar45_tat_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/A5/barbie_ar45_tat_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/A5/barbie_ar45_tat_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/A5/barbie_ar45_tat_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/A5/instruction_A5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/A5/Video_DTF.mp4;</v>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/tree/main/Tatulya/images/A5/barbie_ar45_tat_vert_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/tree/main/Tatulya/images/A5/barbie_ar45_tat_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/tree/main/Tatulya/images/A5/barbie_ar45_tat_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/tree/main/Tatulya/images/A5/barbie_ar45_tat_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/tree/main/Tatulya/images/A5/barbie_ar45_tat_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/tree/main/Tatulya/images/A5/instruction_A5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/tree/main/Tatulya/images/A5/Video_DTF.mp4;</v>
       </c>
       <c r="AA2" s="0" t="str">
         <f aca="false">A2</f>
@@ -2207,10 +2206,10 @@
         <v>428</v>
       </c>
       <c r="AD2" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE2" s="11" t="s">
         <v>79</v>
-      </c>
-      <c r="AE2" s="11" t="s">
-        <v>80</v>
       </c>
       <c r="AH2" s="0" t="n">
         <f aca="false">W2</f>
@@ -2229,18 +2228,18 @@
       </c>
       <c r="AL2" s="14" t="str">
         <f aca="false">CONCATENATE(H2,C2,"_1.jpg")</f>
-        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/A5/barbie_ar45_tat_vert_1.jpg</v>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/tree/main/Tatulya/images/A5/barbie_ar45_tat_vert_1.jpg</v>
       </c>
       <c r="AM2" s="15" t="str">
         <f aca="false">CONCATENATE(CONCATENATE(H2, C2, "_2.jpg;"),CONCATENATE(H2, C2, "_3.jpg;"),CONCATENATE(H2, C2, "_4.jpg;"),CONCATENATE(H2, C2, "_5.jpg;"),CONCATENATE(H2, "instruction_A5.jpg;") )</f>
-        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/A5/barbie_ar45_tat_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/A5/barbie_ar45_tat_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/A5/barbie_ar45_tat_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/A5/barbie_ar45_tat_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/A5/instruction_A5.jpg;</v>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/tree/main/Tatulya/images/A5/barbie_ar45_tat_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/tree/main/Tatulya/images/A5/barbie_ar45_tat_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/tree/main/Tatulya/images/A5/barbie_ar45_tat_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/tree/main/Tatulya/images/A5/barbie_ar45_tat_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/tree/main/Tatulya/images/A5/instruction_A5.jpg;</v>
       </c>
       <c r="AP2" s="14" t="str">
         <f aca="false">J2</f>
-        <v>Punky Monkey</v>
+        <v>Amazing Pics</v>
       </c>
       <c r="AQ2" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AS2" s="11"/>
       <c r="AT2" s="0" t="str">
@@ -2248,11 +2247,11 @@
         <v>Барби фон розовый круг</v>
       </c>
       <c r="AU2" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AV2" s="0" t="str">
         <f aca="false">S2</f>
-        <v>Термонаклейка Барби фон розовый круг - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Punkey Monkey!
+        <v>Термонаклейка Барби фон розовый круг - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Amazing Pics!
 </v>
       </c>
       <c r="AX2" s="12" t="str">
@@ -2264,29 +2263,29 @@
         <v>Полимерный материал</v>
       </c>
       <c r="BC2" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BD2" s="11"/>
       <c r="BE2" s="15" t="str">
         <f aca="false">CONCATENATE(H2,C2,"_color.jpg")</f>
-        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/A5/barbie_ar45_tat_vert_color.jpg</v>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/tree/main/Tatulya/images/A5/barbie_ar45_tat_vert_color.jpg</v>
       </c>
       <c r="BM2" s="0" t="str">
         <f aca="false">CONCATENATE("термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля,",SUBSTITUTE(A2,"Термонаклейка",""))</f>
         <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Барби фон розовый круг</v>
       </c>
       <c r="BR2" s="17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BS2" s="18" t="str">
         <f aca="false">CONCATENATE(H2,"Video_DTF.mp4")</f>
-        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/A5/Video_DTF.mp4</v>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/tree/main/Tatulya/images/A5/Video_DTF.mp4</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="17"/>
       <c r="H3" s="11"/>
-      <c r="S3" s="8"/>
+      <c r="S3" s="19"/>
       <c r="Y3" s="9"/>
       <c r="AD3" s="10"/>
       <c r="AE3" s="11"/>
@@ -2310,7 +2309,7 @@
     <row r="4" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="17"/>
       <c r="H4" s="11"/>
-      <c r="S4" s="8"/>
+      <c r="S4" s="19"/>
       <c r="Y4" s="9"/>
       <c r="AD4" s="10"/>
       <c r="AE4" s="11"/>
@@ -2334,7 +2333,7 @@
     <row r="5" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="17"/>
       <c r="H5" s="11"/>
-      <c r="S5" s="8"/>
+      <c r="S5" s="19"/>
       <c r="Y5" s="9"/>
       <c r="AD5" s="10"/>
       <c r="AE5" s="11"/>
@@ -2358,7 +2357,7 @@
     <row r="6" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="17"/>
       <c r="H6" s="11"/>
-      <c r="S6" s="8"/>
+      <c r="S6" s="19"/>
       <c r="Y6" s="9"/>
       <c r="AD6" s="10"/>
       <c r="AE6" s="11"/>
@@ -2382,7 +2381,7 @@
     <row r="7" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="17"/>
       <c r="H7" s="11"/>
-      <c r="S7" s="8"/>
+      <c r="S7" s="19"/>
       <c r="Y7" s="9"/>
       <c r="AD7" s="10"/>
       <c r="AE7" s="11"/>
@@ -2406,7 +2405,7 @@
     <row r="8" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="17"/>
       <c r="H8" s="11"/>
-      <c r="S8" s="8"/>
+      <c r="S8" s="19"/>
       <c r="Y8" s="9"/>
       <c r="AD8" s="10"/>
       <c r="AE8" s="11"/>
@@ -2430,7 +2429,7 @@
     <row r="9" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="17"/>
       <c r="H9" s="11"/>
-      <c r="S9" s="8"/>
+      <c r="S9" s="19"/>
       <c r="Y9" s="9"/>
       <c r="AD9" s="10"/>
       <c r="AE9" s="11"/>
@@ -2454,7 +2453,7 @@
     <row r="10" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="17"/>
       <c r="H10" s="11"/>
-      <c r="S10" s="8"/>
+      <c r="S10" s="19"/>
       <c r="Y10" s="9"/>
       <c r="AD10" s="10"/>
       <c r="AE10" s="11"/>
@@ -2478,7 +2477,7 @@
     <row r="11" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="17"/>
       <c r="H11" s="11"/>
-      <c r="S11" s="8"/>
+      <c r="S11" s="19"/>
       <c r="Y11" s="9"/>
       <c r="AD11" s="10"/>
       <c r="AE11" s="11"/>
@@ -2502,7 +2501,7 @@
     <row r="12" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="17"/>
       <c r="H12" s="11"/>
-      <c r="S12" s="8"/>
+      <c r="S12" s="19"/>
       <c r="Y12" s="9"/>
       <c r="AD12" s="10"/>
       <c r="AE12" s="11"/>
@@ -2526,7 +2525,7 @@
     <row r="13" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="17"/>
       <c r="H13" s="11"/>
-      <c r="S13" s="8"/>
+      <c r="S13" s="19"/>
       <c r="Y13" s="9"/>
       <c r="AD13" s="10"/>
       <c r="AE13" s="11"/>
@@ -2550,7 +2549,7 @@
     <row r="14" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="17"/>
       <c r="H14" s="11"/>
-      <c r="S14" s="8"/>
+      <c r="S14" s="19"/>
       <c r="Y14" s="9"/>
       <c r="AD14" s="10"/>
       <c r="AE14" s="11"/>
@@ -2574,7 +2573,7 @@
     <row r="15" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="17"/>
       <c r="H15" s="11"/>
-      <c r="S15" s="8"/>
+      <c r="S15" s="19"/>
       <c r="Y15" s="9"/>
       <c r="AD15" s="10"/>
       <c r="AE15" s="11"/>
@@ -2598,7 +2597,7 @@
     <row r="16" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="17"/>
       <c r="H16" s="11"/>
-      <c r="S16" s="8"/>
+      <c r="S16" s="19"/>
       <c r="Y16" s="9"/>
       <c r="AD16" s="10"/>
       <c r="AE16" s="11"/>
@@ -2622,7 +2621,7 @@
     <row r="17" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="17"/>
       <c r="H17" s="11"/>
-      <c r="S17" s="8"/>
+      <c r="S17" s="19"/>
       <c r="Y17" s="9"/>
       <c r="AD17" s="10"/>
       <c r="AE17" s="11"/>
@@ -2646,7 +2645,7 @@
     <row r="18" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="17"/>
       <c r="H18" s="11"/>
-      <c r="S18" s="8"/>
+      <c r="S18" s="19"/>
       <c r="Y18" s="9"/>
       <c r="AD18" s="10"/>
       <c r="AE18" s="11"/>
@@ -2670,7 +2669,7 @@
     <row r="19" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="17"/>
       <c r="H19" s="11"/>
-      <c r="S19" s="8"/>
+      <c r="S19" s="19"/>
       <c r="Y19" s="9"/>
       <c r="AD19" s="10"/>
       <c r="AE19" s="11"/>
@@ -2694,7 +2693,7 @@
     <row r="20" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="17"/>
       <c r="H20" s="11"/>
-      <c r="S20" s="8"/>
+      <c r="S20" s="19"/>
       <c r="Y20" s="9"/>
       <c r="AD20" s="10"/>
       <c r="AE20" s="11"/>
@@ -2718,7 +2717,7 @@
     <row r="21" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="17"/>
       <c r="H21" s="11"/>
-      <c r="S21" s="8"/>
+      <c r="S21" s="19"/>
       <c r="Y21" s="9"/>
       <c r="AD21" s="10"/>
       <c r="AE21" s="11"/>
@@ -2742,7 +2741,7 @@
     <row r="22" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="17"/>
       <c r="H22" s="11"/>
-      <c r="S22" s="8"/>
+      <c r="S22" s="19"/>
       <c r="Y22" s="9"/>
       <c r="AD22" s="10"/>
       <c r="AE22" s="11"/>
@@ -2766,7 +2765,7 @@
     <row r="23" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="17"/>
       <c r="H23" s="11"/>
-      <c r="S23" s="8"/>
+      <c r="S23" s="19"/>
       <c r="Y23" s="9"/>
       <c r="AD23" s="10"/>
       <c r="AE23" s="11"/>
@@ -2790,7 +2789,7 @@
     <row r="24" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="17"/>
       <c r="H24" s="11"/>
-      <c r="S24" s="8"/>
+      <c r="S24" s="19"/>
       <c r="Y24" s="9"/>
       <c r="AD24" s="10"/>
       <c r="AE24" s="11"/>
@@ -2814,7 +2813,7 @@
     <row r="25" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="17"/>
       <c r="H25" s="11"/>
-      <c r="S25" s="8"/>
+      <c r="S25" s="19"/>
       <c r="Y25" s="9"/>
       <c r="AD25" s="10"/>
       <c r="AE25" s="11"/>
@@ -2838,7 +2837,7 @@
     <row r="26" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="17"/>
       <c r="H26" s="11"/>
-      <c r="S26" s="8"/>
+      <c r="S26" s="19"/>
       <c r="Y26" s="9"/>
       <c r="AD26" s="10"/>
       <c r="AE26" s="11"/>
@@ -2862,7 +2861,7 @@
     <row r="27" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="17"/>
       <c r="H27" s="11"/>
-      <c r="S27" s="8"/>
+      <c r="S27" s="19"/>
       <c r="Y27" s="9"/>
       <c r="AD27" s="10"/>
       <c r="AE27" s="11"/>
@@ -2886,7 +2885,7 @@
     <row r="28" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="17"/>
       <c r="H28" s="11"/>
-      <c r="S28" s="8"/>
+      <c r="S28" s="19"/>
       <c r="Y28" s="9"/>
       <c r="AD28" s="10"/>
       <c r="AE28" s="11"/>
@@ -2910,7 +2909,7 @@
     <row r="29" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="17"/>
       <c r="H29" s="11"/>
-      <c r="S29" s="8"/>
+      <c r="S29" s="19"/>
       <c r="Y29" s="9"/>
       <c r="AD29" s="10"/>
       <c r="AE29" s="11"/>
@@ -2934,7 +2933,7 @@
     <row r="30" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="17"/>
       <c r="H30" s="11"/>
-      <c r="S30" s="8"/>
+      <c r="S30" s="19"/>
       <c r="Y30" s="9"/>
       <c r="AD30" s="10"/>
       <c r="AE30" s="11"/>
@@ -2958,7 +2957,7 @@
     <row r="31" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="17"/>
       <c r="H31" s="11"/>
-      <c r="S31" s="8"/>
+      <c r="S31" s="19"/>
       <c r="Y31" s="9"/>
       <c r="AD31" s="10"/>
       <c r="AE31" s="11"/>
@@ -2981,9 +2980,9 @@
     </row>
     <row r="32" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="17"/>
-      <c r="B32" s="8"/>
+      <c r="B32" s="19"/>
       <c r="H32" s="11"/>
-      <c r="S32" s="8"/>
+      <c r="S32" s="19"/>
       <c r="Y32" s="9"/>
       <c r="AD32" s="10"/>
       <c r="AE32" s="11"/>
@@ -3007,7 +3006,7 @@
     <row r="33" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="17"/>
       <c r="H33" s="11"/>
-      <c r="S33" s="8"/>
+      <c r="S33" s="19"/>
       <c r="Y33" s="9"/>
       <c r="AD33" s="10"/>
       <c r="AE33" s="11"/>
@@ -3031,7 +3030,7 @@
     <row r="34" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="17"/>
       <c r="H34" s="11"/>
-      <c r="S34" s="8"/>
+      <c r="S34" s="19"/>
       <c r="Y34" s="9"/>
       <c r="AD34" s="10"/>
       <c r="AE34" s="11"/>
@@ -3055,7 +3054,7 @@
     <row r="35" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="17"/>
       <c r="H35" s="11"/>
-      <c r="S35" s="8"/>
+      <c r="S35" s="19"/>
       <c r="Y35" s="9"/>
       <c r="AD35" s="10"/>
       <c r="AE35" s="11"/>
@@ -3079,7 +3078,7 @@
     <row r="36" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="17"/>
       <c r="H36" s="11"/>
-      <c r="S36" s="8"/>
+      <c r="S36" s="19"/>
       <c r="Y36" s="9"/>
       <c r="AD36" s="10"/>
       <c r="AE36" s="11"/>
@@ -3103,7 +3102,7 @@
     <row r="37" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="17"/>
       <c r="H37" s="11"/>
-      <c r="S37" s="8"/>
+      <c r="S37" s="19"/>
       <c r="Y37" s="9"/>
       <c r="AD37" s="10"/>
       <c r="AE37" s="11"/>
@@ -3127,7 +3126,7 @@
     <row r="38" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="17"/>
       <c r="H38" s="11"/>
-      <c r="S38" s="8"/>
+      <c r="S38" s="19"/>
       <c r="Y38" s="9"/>
       <c r="AD38" s="10"/>
       <c r="AE38" s="11"/>
@@ -3151,7 +3150,7 @@
     <row r="39" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="17"/>
       <c r="H39" s="11"/>
-      <c r="S39" s="8"/>
+      <c r="S39" s="19"/>
       <c r="Y39" s="9"/>
       <c r="AD39" s="10"/>
       <c r="AE39" s="11"/>
@@ -3175,7 +3174,7 @@
     <row r="40" customFormat="false" ht="19.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="17"/>
       <c r="H40" s="11"/>
-      <c r="S40" s="8"/>
+      <c r="S40" s="19"/>
       <c r="Y40" s="9"/>
       <c r="AD40" s="10"/>
       <c r="AE40" s="11"/>
@@ -3198,7 +3197,7 @@
     </row>
     <row r="41" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="17"/>
-      <c r="S41" s="8"/>
+      <c r="S41" s="19"/>
       <c r="Y41" s="9"/>
       <c r="AD41" s="10"/>
       <c r="AE41" s="11"/>
@@ -3220,8 +3219,8 @@
       <c r="BS41" s="18"/>
     </row>
     <row r="42" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="19"/>
-      <c r="S42" s="8"/>
+      <c r="A42" s="20"/>
+      <c r="S42" s="19"/>
       <c r="Y42" s="9"/>
       <c r="AD42" s="10"/>
       <c r="AE42" s="11"/>
@@ -3243,8 +3242,8 @@
       <c r="BS42" s="18"/>
     </row>
     <row r="43" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="19"/>
-      <c r="S43" s="8"/>
+      <c r="A43" s="20"/>
+      <c r="S43" s="19"/>
       <c r="Y43" s="9"/>
       <c r="AD43" s="10"/>
       <c r="AE43" s="11"/>
@@ -3266,8 +3265,8 @@
       <c r="BS43" s="18"/>
     </row>
     <row r="44" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="19"/>
-      <c r="S44" s="8"/>
+      <c r="A44" s="20"/>
+      <c r="S44" s="19"/>
       <c r="Y44" s="9"/>
       <c r="AD44" s="10"/>
       <c r="AE44" s="11"/>
@@ -3289,8 +3288,8 @@
       <c r="BS44" s="18"/>
     </row>
     <row r="45" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="19"/>
-      <c r="S45" s="8"/>
+      <c r="A45" s="20"/>
+      <c r="S45" s="19"/>
       <c r="Y45" s="9"/>
       <c r="AD45" s="10"/>
       <c r="AE45" s="11"/>
@@ -3313,226 +3312,226 @@
     </row>
     <row r="46" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="47" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="19"/>
+      <c r="A47" s="20"/>
     </row>
     <row r="48" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="19"/>
+      <c r="A48" s="20"/>
     </row>
     <row r="49" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="19"/>
+      <c r="A49" s="20"/>
     </row>
     <row r="50" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="19"/>
+      <c r="A50" s="20"/>
     </row>
     <row r="51" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="19"/>
+      <c r="A51" s="20"/>
     </row>
     <row r="52" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="19"/>
+      <c r="A52" s="20"/>
     </row>
     <row r="53" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="19"/>
+      <c r="A53" s="20"/>
     </row>
     <row r="54" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="19"/>
+      <c r="A54" s="20"/>
     </row>
     <row r="55" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="19"/>
+      <c r="A55" s="20"/>
     </row>
     <row r="56" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="19"/>
+      <c r="A56" s="20"/>
     </row>
     <row r="57" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="19"/>
+      <c r="A57" s="20"/>
     </row>
     <row r="58" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="19"/>
+      <c r="A58" s="20"/>
     </row>
     <row r="59" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="19"/>
+      <c r="A59" s="20"/>
     </row>
     <row r="60" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="19"/>
+      <c r="A60" s="20"/>
     </row>
     <row r="61" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="19"/>
+      <c r="A61" s="20"/>
     </row>
     <row r="62" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="19"/>
+      <c r="A62" s="20"/>
     </row>
     <row r="63" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="19"/>
+      <c r="A63" s="20"/>
     </row>
     <row r="64" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="19"/>
+      <c r="A64" s="20"/>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="19"/>
+      <c r="A65" s="20"/>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="19"/>
+      <c r="A66" s="20"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="19"/>
+      <c r="A67" s="20"/>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="19"/>
+      <c r="A68" s="20"/>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="19"/>
+      <c r="A69" s="20"/>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="19"/>
+      <c r="A70" s="20"/>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="19"/>
+      <c r="A71" s="20"/>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="19"/>
+      <c r="A72" s="20"/>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="19"/>
+      <c r="A73" s="20"/>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="19"/>
+      <c r="A74" s="20"/>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="19"/>
+      <c r="A75" s="20"/>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="19"/>
+      <c r="A76" s="20"/>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="19"/>
+      <c r="A77" s="20"/>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="19"/>
+      <c r="A78" s="20"/>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="19"/>
+      <c r="A79" s="20"/>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="19"/>
+      <c r="A80" s="20"/>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="19"/>
+      <c r="A81" s="20"/>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="19"/>
+      <c r="A82" s="20"/>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="19"/>
+      <c r="A83" s="20"/>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="19"/>
+      <c r="A84" s="20"/>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="19"/>
+      <c r="A85" s="20"/>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="19"/>
+      <c r="A86" s="20"/>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="19"/>
+      <c r="A87" s="20"/>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="19"/>
+      <c r="A88" s="20"/>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="19"/>
+      <c r="A89" s="20"/>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="19"/>
+      <c r="A90" s="20"/>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="19"/>
+      <c r="A91" s="20"/>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="19"/>
+      <c r="A92" s="20"/>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="19"/>
+      <c r="A93" s="20"/>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="19"/>
+      <c r="A94" s="20"/>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="19"/>
+      <c r="A95" s="20"/>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="19"/>
+      <c r="A96" s="20"/>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="19"/>
+      <c r="A97" s="20"/>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="19"/>
+      <c r="A98" s="20"/>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="19"/>
+      <c r="A99" s="20"/>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="19"/>
+      <c r="A100" s="20"/>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="19"/>
+      <c r="A101" s="20"/>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="19"/>
+      <c r="A102" s="20"/>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="19"/>
+      <c r="A103" s="20"/>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="19"/>
+      <c r="A104" s="20"/>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="19"/>
+      <c r="A105" s="20"/>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="19"/>
+      <c r="A106" s="20"/>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="19"/>
+      <c r="A107" s="20"/>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="19"/>
+      <c r="A108" s="20"/>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="19"/>
+      <c r="A109" s="20"/>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="19"/>
+      <c r="A110" s="20"/>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="19"/>
+      <c r="A111" s="20"/>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="19"/>
+      <c r="A112" s="20"/>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="19"/>
+      <c r="A113" s="20"/>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="19"/>
+      <c r="A114" s="20"/>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="19"/>
+      <c r="A115" s="20"/>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="19"/>
+      <c r="A116" s="20"/>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="19"/>
+      <c r="A117" s="20"/>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="19"/>
+      <c r="A118" s="20"/>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="19"/>
+      <c r="A119" s="20"/>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="19"/>
+      <c r="A120" s="20"/>
     </row>
   </sheetData>
   <dataValidations count="16">
@@ -3601,6 +3600,9 @@
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId2" display="https://raw.githubusercontent.com/maxuzkikh"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -3608,7 +3610,7 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -3617,10 +3619,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B82"/>
+  <dimension ref="A1:B137"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3630,430 +3632,738 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="2" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="2" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>83</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>83</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>83</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>83</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>83</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>83</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>83</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>83</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>83</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>83</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>83</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>83</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>83</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>83</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>83</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>83</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>83</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>83</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>83</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>83</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>83</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>83</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>83</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>83</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>83</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>83</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>83</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>83</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>83</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>83</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>83</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>83</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>83</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>83</v>
+      </c>
+      <c r="B35" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>83</v>
+      </c>
+      <c r="B36" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>83</v>
+      </c>
+      <c r="B37" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>83</v>
+      </c>
+      <c r="B38" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>83</v>
+      </c>
+      <c r="B39" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>83</v>
+      </c>
+      <c r="B40" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>83</v>
+      </c>
+      <c r="B41" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>83</v>
+      </c>
+      <c r="B42" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>83</v>
+      </c>
+      <c r="B43" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>83</v>
+      </c>
+      <c r="B44" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>83</v>
+      </c>
+      <c r="B45" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>83</v>
+      </c>
+      <c r="B46" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>83</v>
+      </c>
+      <c r="B47" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>83</v>
+      </c>
+      <c r="B48" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>83</v>
+      </c>
+      <c r="B49" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="52" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="53" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="54" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="55" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="56" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="57" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="58" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="59" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="60" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="61" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="62" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="63" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="64" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="65" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="66" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="67" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="68" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="69" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="70" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="72" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="73" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="74" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="75" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="76" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="77" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="78" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="79" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="80" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="81" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="82" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>83</v>
+      </c>
+      <c r="B50" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B51" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B52" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B53" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B54" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B55" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B56" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B57" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B58" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B59" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B60" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B61" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B62" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B63" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B64" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B65" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B66" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B67" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B68" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B69" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B70" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B71" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B72" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B73" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B74" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B75" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B76" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B77" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B78" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B79" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B80" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B81" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B82" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B83" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B84" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B85" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B86" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B87" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B88" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B89" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B90" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B91" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B92" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B93" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B94" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B95" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B96" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B97" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B98" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B99" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B100" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B101" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B102" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B103" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B104" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B105" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B106" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B107" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B108" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B109" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B110" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B111" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B112" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B113" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="115" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="116" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="117" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="118" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="119" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="120" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="121" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="122" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="123" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="124" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="125" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="126" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="127" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="128" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="129" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="130" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="131" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="132" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="133" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="134" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="135" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="136" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="137" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
